--- a/biology/Zoologie/Eurygaster/Eurygaster.xlsx
+++ b/biology/Zoologie/Eurygaster/Eurygaster.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eurygaster est un genre d'insectes hémiptères, de punaises de la famille des Scutelleridae, de la sous-famille des Eurygastrinae et de la tribu des Eurygastrini.
 </t>
@@ -511,15 +523,86 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le genre a été décrit par l'entomologiste français Francis de Laporte de Castelnau en 1833 (ou 1832 selon les sources ou la publication originale)[1],[2],[3].
-Synonymie
-Bellocoris Hahn, 1834
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre a été décrit par l'entomologiste français Francis de Laporte de Castelnau en 1833 (ou 1832 selon les sources ou la publication originale).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Eurygaster</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eurygaster</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Bellocoris Hahn, 1834
 Platypleurus Mulsant &amp; Rey, 1865
-Holophlygdus Stål, 1873
-Taxonomie
-Liste des espèces
+Holophlygdus Stål, 1873</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Eurygaster</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eurygaster</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Liste des espèces
 Eurygaster alternata (Say, 1828)
 Eurygaster amerinda Bliven, 1956
 Eurygaster austriaca (Schrank, 1776)
@@ -535,14 +618,14 @@
 Eurygaster paderewskii Bliven, 1962
 Eurygaster shoshone Kirkaldy, 1909
 Eurygaster testudinaria (Geoffroy, 1785)
-Selon ITIS      (5 octobre 2019)[4] :
+Selon ITIS      (5 octobre 2019) :
 Eurygaster alternata (Say, 1828)
 Eurygaster amerinda Bliven, 1956
 Eurygaster hottentotta (Fabricius, 1775)
 Eurygaster minidoka Bliven, 1956
 Eurygaster paderewskii Bliven, 1962
 Eurygaster shoshone Kirkaldy, 1909
-Selon NCBI  (5 octobre 2019)[5] :
+Selon NCBI  (5 octobre 2019) :
 Eurygaster alternata (Say, 1828)
 Eurygaster amerinda Bliven, 1956
 Eurygaster austriaca (Schrank, 1776)
@@ -553,34 +636,36 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Eurygaster</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Eurygaster</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Espèce fossile</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Paleobiology Database en 2023, une seule espèce fossile est référencée[2] :
-†Eurygaster granulosus Förster, 1891[6].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Paleobiology Database en 2023, une seule espèce fossile est référencée :
+†Eurygaster granulosus Förster, 1891.</t>
         </is>
       </c>
     </row>
